--- a/individual_results/avey/118.xlsx
+++ b/individual_results/avey/118.xlsx
@@ -555,7 +555,7 @@
         <v>0.2</v>
       </c>
       <c r="C2" t="n">
-        <v>0.25</v>
+        <v>0.5</v>
       </c>
       <c r="D2" t="n">
         <v>1</v>
@@ -564,7 +564,7 @@
         <v>1</v>
       </c>
       <c r="F2" t="n">
-        <v>0.3333333333333333</v>
+        <v>0.5</v>
       </c>
       <c r="G2" t="n">
         <v>0</v>
@@ -597,7 +597,7 @@
         <v>0.5</v>
       </c>
       <c r="Q2" t="n">
-        <v>0.2</v>
+        <v>0.4</v>
       </c>
       <c r="R2" t="n">
         <v>0</v>
@@ -609,13 +609,13 @@
         <v>0.5</v>
       </c>
       <c r="U2" t="n">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="V2" t="n">
         <v>0.5</v>
       </c>
       <c r="W2" t="n">
-        <v>0</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="3">
@@ -628,7 +628,7 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="C3" t="n">
-        <v>0.3333333333333333</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="D3" t="n">
         <v>1</v>
@@ -637,7 +637,7 @@
         <v>1</v>
       </c>
       <c r="F3" t="n">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G3" t="n">
         <v>0</v>
@@ -670,7 +670,7 @@
         <v>1.333333333333333</v>
       </c>
       <c r="Q3" t="n">
-        <v>0.3333333333333333</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="R3" t="n">
         <v>0</v>
@@ -682,13 +682,13 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="U3" t="n">
-        <v>0</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="V3" t="n">
         <v>0.3333333333333333</v>
       </c>
       <c r="W3" t="n">
-        <v>0</v>
+        <v>0.3333333333333333</v>
       </c>
     </row>
     <row r="4">
@@ -701,7 +701,7 @@
         <v>0.25</v>
       </c>
       <c r="C4" t="n">
-        <v>0.2857142857142858</v>
+        <v>0.5714285714285715</v>
       </c>
       <c r="D4" t="n">
         <v>1</v>
@@ -710,7 +710,7 @@
         <v>1</v>
       </c>
       <c r="F4" t="n">
-        <v>0.4444444444444444</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G4" t="inlineStr"/>
       <c r="H4" t="n">
@@ -739,18 +739,22 @@
         <v>0.7272727272727273</v>
       </c>
       <c r="Q4" t="n">
-        <v>0.25</v>
+        <v>0.5</v>
       </c>
       <c r="R4" t="inlineStr"/>
       <c r="S4" t="inlineStr"/>
       <c r="T4" t="n">
         <v>0.4</v>
       </c>
-      <c r="U4" t="inlineStr"/>
+      <c r="U4" t="n">
+        <v>0.4</v>
+      </c>
       <c r="V4" t="n">
         <v>0.4</v>
       </c>
-      <c r="W4" t="inlineStr"/>
+      <c r="W4" t="n">
+        <v>0.4</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="inlineStr">
@@ -762,7 +766,7 @@
         <v>0.2941176470588235</v>
       </c>
       <c r="C5" t="n">
-        <v>0.3125</v>
+        <v>0.625</v>
       </c>
       <c r="D5" t="n">
         <v>1</v>
@@ -771,7 +775,7 @@
         <v>1</v>
       </c>
       <c r="F5" t="n">
-        <v>0.5555555555555555</v>
+        <v>0.8333333333333334</v>
       </c>
       <c r="G5" t="inlineStr"/>
       <c r="H5" t="n">
@@ -800,18 +804,22 @@
         <v>1</v>
       </c>
       <c r="Q5" t="n">
-        <v>0.2941176470588235</v>
+        <v>0.5882352941176471</v>
       </c>
       <c r="R5" t="inlineStr"/>
       <c r="S5" t="inlineStr"/>
       <c r="T5" t="n">
         <v>0.3571428571428571</v>
       </c>
-      <c r="U5" t="inlineStr"/>
+      <c r="U5" t="n">
+        <v>0.3571428571428571</v>
+      </c>
       <c r="V5" t="n">
         <v>0.3571428571428571</v>
       </c>
-      <c r="W5" t="inlineStr"/>
+      <c r="W5" t="n">
+        <v>0.3571428571428571</v>
+      </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
@@ -823,7 +831,7 @@
         <v>0.2015151419005024</v>
       </c>
       <c r="C6" t="n">
-        <v>0.1375554841440053</v>
+        <v>0.882808018370203</v>
       </c>
       <c r="D6" t="n">
         <v>0.7363636171343382</v>
@@ -832,7 +840,7 @@
         <v>0.7363636171343382</v>
       </c>
       <c r="F6" t="n">
-        <v>0.2547474657738023</v>
+        <v>1</v>
       </c>
       <c r="G6" t="n">
         <v>0</v>
@@ -865,7 +873,7 @@
         <v>0.732441484974379</v>
       </c>
       <c r="Q6" t="n">
-        <v>0.1235584435560261</v>
+        <v>0.5937604413238652</v>
       </c>
       <c r="R6" t="n">
         <v>0</v>
@@ -877,13 +885,13 @@
         <v>0.7452525342261976</v>
       </c>
       <c r="U6" t="n">
-        <v>0</v>
+        <v>0.7452525342261976</v>
       </c>
       <c r="V6" t="n">
         <v>0.4702019977678391</v>
       </c>
       <c r="W6" t="n">
-        <v>0</v>
+        <v>0.4702019977678391</v>
       </c>
     </row>
     <row r="7">
@@ -896,7 +904,7 @@
         <v>0</v>
       </c>
       <c r="C7" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D7" t="b">
         <v>0</v>
@@ -905,7 +913,7 @@
         <v>0</v>
       </c>
       <c r="F7" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G7" t="b">
         <v>0</v>
@@ -950,7 +958,7 @@
         <v>1</v>
       </c>
       <c r="U7" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="V7" t="b">
         <v>0</v>
@@ -969,7 +977,7 @@
         <v>0</v>
       </c>
       <c r="C8" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D8" t="b">
         <v>1</v>
@@ -978,7 +986,7 @@
         <v>1</v>
       </c>
       <c r="F8" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G8" t="b">
         <v>0</v>
@@ -1011,7 +1019,7 @@
         <v>1</v>
       </c>
       <c r="Q8" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R8" t="b">
         <v>0</v>
@@ -1023,13 +1031,13 @@
         <v>1</v>
       </c>
       <c r="U8" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="V8" t="b">
         <v>1</v>
       </c>
       <c r="W8" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="9">
@@ -1042,7 +1050,7 @@
         <v>0</v>
       </c>
       <c r="C9" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D9" t="b">
         <v>1</v>
@@ -1051,7 +1059,7 @@
         <v>1</v>
       </c>
       <c r="F9" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G9" t="b">
         <v>0</v>
@@ -1084,7 +1092,7 @@
         <v>1</v>
       </c>
       <c r="Q9" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R9" t="b">
         <v>0</v>
@@ -1096,13 +1104,13 @@
         <v>1</v>
       </c>
       <c r="U9" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="V9" t="b">
         <v>1</v>
       </c>
       <c r="W9" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="10">
@@ -1112,14 +1120,18 @@
         </is>
       </c>
       <c r="B10" t="inlineStr"/>
-      <c r="C10" t="inlineStr"/>
+      <c r="C10" t="n">
+        <v>1</v>
+      </c>
       <c r="D10" t="n">
         <v>2</v>
       </c>
       <c r="E10" t="n">
         <v>2</v>
       </c>
-      <c r="F10" t="inlineStr"/>
+      <c r="F10" t="n">
+        <v>1</v>
+      </c>
       <c r="G10" t="inlineStr"/>
       <c r="H10" t="n">
         <v>3</v>
@@ -1136,17 +1148,23 @@
       <c r="P10" t="n">
         <v>2</v>
       </c>
-      <c r="Q10" t="inlineStr"/>
+      <c r="Q10" t="n">
+        <v>2</v>
+      </c>
       <c r="R10" t="inlineStr"/>
       <c r="S10" t="inlineStr"/>
       <c r="T10" t="n">
         <v>1</v>
       </c>
-      <c r="U10" t="inlineStr"/>
+      <c r="U10" t="n">
+        <v>1</v>
+      </c>
       <c r="V10" t="n">
         <v>2</v>
       </c>
-      <c r="W10" t="inlineStr"/>
+      <c r="W10" t="n">
+        <v>2</v>
+      </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="inlineStr">

--- a/individual_results/avey/118.xlsx
+++ b/individual_results/avey/118.xlsx
@@ -552,7 +552,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0.2</v>
+        <v>0.25</v>
       </c>
       <c r="C2" t="n">
         <v>0.5</v>
@@ -594,7 +594,7 @@
         <v>0.5</v>
       </c>
       <c r="P2" t="n">
-        <v>0.5</v>
+        <v>0.4285714285714285</v>
       </c>
       <c r="Q2" t="n">
         <v>0.4</v>
@@ -643,7 +643,7 @@
         <v>0</v>
       </c>
       <c r="H3" t="n">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="I3" t="n">
         <v>0.3333333333333333</v>
@@ -667,7 +667,7 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="P3" t="n">
-        <v>1.333333333333333</v>
+        <v>1</v>
       </c>
       <c r="Q3" t="n">
         <v>0.6666666666666666</v>
@@ -698,7 +698,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0.25</v>
+        <v>0.2857142857142858</v>
       </c>
       <c r="C4" t="n">
         <v>0.5714285714285715</v>
@@ -714,7 +714,7 @@
       </c>
       <c r="G4" t="inlineStr"/>
       <c r="H4" t="n">
-        <v>1</v>
+        <v>0.8</v>
       </c>
       <c r="I4" t="n">
         <v>0.5</v>
@@ -736,7 +736,7 @@
         <v>0.4</v>
       </c>
       <c r="P4" t="n">
-        <v>0.7272727272727273</v>
+        <v>0.6</v>
       </c>
       <c r="Q4" t="n">
         <v>0.5</v>
@@ -763,7 +763,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0.2941176470588235</v>
+        <v>0.3125</v>
       </c>
       <c r="C5" t="n">
         <v>0.625</v>
@@ -779,7 +779,7 @@
       </c>
       <c r="G5" t="inlineStr"/>
       <c r="H5" t="n">
-        <v>1</v>
+        <v>0.7142857142857142</v>
       </c>
       <c r="I5" t="n">
         <v>0.3846153846153846</v>
@@ -801,7 +801,7 @@
         <v>0.3571428571428571</v>
       </c>
       <c r="P5" t="n">
-        <v>1</v>
+        <v>0.7894736842105262</v>
       </c>
       <c r="Q5" t="n">
         <v>0.5882352941176471</v>
@@ -846,7 +846,7 @@
         <v>0</v>
       </c>
       <c r="H6" t="n">
-        <v>0.8935353522534003</v>
+        <v>0.7895959410076381</v>
       </c>
       <c r="I6" t="n">
         <v>0.319393943239799</v>
@@ -870,7 +870,7 @@
         <v>0.7452525342261976</v>
       </c>
       <c r="P6" t="n">
-        <v>0.732441484974379</v>
+        <v>0.6316839140241278</v>
       </c>
       <c r="Q6" t="n">
         <v>0.5937604413238652</v>
@@ -1134,7 +1134,7 @@
       </c>
       <c r="G10" t="inlineStr"/>
       <c r="H10" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I10" t="inlineStr"/>
       <c r="J10" t="inlineStr"/>
@@ -1173,7 +1173,7 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>1.666666666666667</v>
+        <v>1.333333333333333</v>
       </c>
       <c r="C11" t="n">
         <v>1.333333333333333</v>
@@ -1189,7 +1189,7 @@
       </c>
       <c r="G11" t="inlineStr"/>
       <c r="H11" t="n">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="I11" t="n">
         <v>0.3333333333333333</v>
@@ -1213,7 +1213,7 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="P11" t="n">
-        <v>2.666666666666667</v>
+        <v>2.333333333333333</v>
       </c>
       <c r="Q11" t="n">
         <v>1.666666666666667</v>
